--- a/monthly_report_2024_7.xlsx
+++ b/monthly_report_2024_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>student</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>days_present</t>
+          <t>total_classes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>absent</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>attendance_percentage</t>
         </is>
       </c>
     </row>
@@ -461,11 +476,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -479,11 +503,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -497,11 +530,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -515,11 +557,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mathematics</t>
+          <t>Physics</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
